--- a/docs/Bill of Materials.xlsx
+++ b/docs/Bill of Materials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aolek\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30A0306D-183F-49A9-B459-0047BF593724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4A7699-59A5-4CE5-8B20-880B31F3FB48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{5C59494D-BAB0-431A-8FBA-AC1643E51C15}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>Item No.</t>
   </si>
@@ -63,12 +63,6 @@
   </si>
   <si>
     <t>Quantity</t>
-  </si>
-  <si>
-    <t>ICS-43434</t>
-  </si>
-  <si>
-    <t>MEMS Microphone (PDM output, 65dB SNR, 3.3V)</t>
   </si>
   <si>
     <t>pcs</t>
@@ -189,6 +183,15 @@
       </rPr>
       <t>: Adriana Oleksak, Daniel Plotkin, Beniamin Borowski</t>
     </r>
+  </si>
+  <si>
+    <t>INMP441 Microphone Module</t>
+  </si>
+  <si>
+    <t>Omnidirectional MEMS mic (I²S output, 64dB SNR, 3.3V)</t>
+  </si>
+  <si>
+    <t>INMP441</t>
   </si>
 </sst>
 </file>
@@ -579,12 +582,12 @@
   <dimension ref="B2:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="16.08984375" customWidth="1"/>
+    <col min="3" max="3" width="24.81640625" customWidth="1"/>
     <col min="4" max="4" width="56.6328125" customWidth="1"/>
     <col min="5" max="5" width="16.26953125" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
@@ -599,17 +602,17 @@
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
@@ -638,7 +641,7 @@
         <v>6</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.35">
@@ -646,28 +649,28 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" t="s">
         <v>11</v>
       </c>
-      <c r="H8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" t="s">
-        <v>13</v>
-      </c>
       <c r="J8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.35">
@@ -675,28 +678,28 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
         <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" t="s">
-        <v>16</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.35">
@@ -704,28 +707,28 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
         <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" t="s">
-        <v>20</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" t="s">
         <v>21</v>
       </c>
-      <c r="I10" t="s">
-        <v>23</v>
-      </c>
       <c r="J10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
